--- a/analysis/g12/best_points.xlsx
+++ b/analysis/g12/best_points.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/OneDrive - University of Leeds/Nordic/cur_g12/surf/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA30B8-0551-0F4E-951B-A14D7572062F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +95,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -155,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,27 +173,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,24 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,18 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -474,7 +420,7 @@
         <v>35.8142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -491,7 +437,7 @@
         <v>35.8292</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -505,10 +451,10 @@
         <v>0.03</v>
       </c>
       <c r="E4">
-        <v>35.839199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35.8392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -522,10 +468,10 @@
         <v>0.04</v>
       </c>
       <c r="E5">
-        <v>35.839199999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35.8392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -539,10 +485,10 @@
         <v>0.05</v>
       </c>
       <c r="E6">
-        <v>35.849200000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35.8492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -559,7 +505,7 @@
         <v>36.7849</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -570,13 +516,13 @@
         <v>0.1</v>
       </c>
       <c r="D8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8">
-        <v>36.781599999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36.7816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -590,10 +536,10 @@
         <v>0.08</v>
       </c>
       <c r="E9">
-        <v>36.771599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36.7716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -607,10 +553,10 @@
         <v>0.09</v>
       </c>
       <c r="E10">
-        <v>36.768300000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36.7683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -624,10 +570,10 @@
         <v>0.1</v>
       </c>
       <c r="E11">
-        <v>36.751600000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36.7516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -641,10 +587,10 @@
         <v>0.11</v>
       </c>
       <c r="E12">
-        <v>36.746400000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36.7464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -658,10 +604,10 @@
         <v>0.12</v>
       </c>
       <c r="E13">
-        <v>36.726399999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36.7264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -675,10 +621,10 @@
         <v>0.13</v>
       </c>
       <c r="E14">
-        <v>37.706400000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37.7064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -689,13 +635,13 @@
         <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
         <v>37.6708</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -709,10 +655,10 @@
         <v>0.15</v>
       </c>
       <c r="E16">
-        <v>37.656399999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37.6564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,10 +672,10 @@
         <v>0.16</v>
       </c>
       <c r="E17">
-        <v>37.610799999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37.6108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -743,10 +689,10 @@
         <v>0.17</v>
       </c>
       <c r="E18">
-        <v>37.580800000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37.5808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -763,7 +709,7 @@
         <v>37.4908</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -777,10 +723,10 @@
         <v>0.19</v>
       </c>
       <c r="E20">
-        <v>37.440800000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37.4408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -794,10 +740,10 @@
         <v>0.2</v>
       </c>
       <c r="E21">
-        <v>38.726399999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38.7264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -811,7 +757,7 @@
         <v>0.21</v>
       </c>
       <c r="E22">
-        <v>38.680799999999998</v>
+        <v>38.6808</v>
       </c>
     </row>
   </sheetData>
